--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>site [BFO:0000029]</t>
+          <t>architectural structure [OMRSE:00000061]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,82 +639,78 @@
       <c r="AC2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026004</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>attribute of location [BCIO:026003]</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X3" s="2" t="inlineStr"/>
-      <c r="Y3" s="2" t="inlineStr"/>
-      <c r="Z3" s="2" t="inlineStr"/>
-      <c r="AA3" s="2" t="inlineStr"/>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" s="2" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>material entity [BFO:0000040]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>area social and economic condition</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>community facility [BCIO:026029]</t>
+          <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
@@ -728,14 +724,14 @@
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr"/>
@@ -767,24 +763,20 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>attribute of location</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant [BFO:0000020]</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention physical setting</t>
-        </is>
-      </c>
+          <t>community facility [BCIO:026029]</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
@@ -795,19 +787,19 @@
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
       <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>JH; BG</t>
-        </is>
-      </c>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -832,145 +824,153 @@
       <c r="AC5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant [BFO:0000020]</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention physical setting</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>JH; BG</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="inlineStr"/>
+      <c r="AB6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>ENVO:00000091</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>beach</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>ENVO:00000091</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026017</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility [OMRSE:00000102]</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
-      <c r="W7" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X7" s="2" t="inlineStr"/>
-      <c r="Y7" s="2" t="inlineStr"/>
-      <c r="Z7" s="2" t="inlineStr"/>
-      <c r="AA7" s="2" t="inlineStr"/>
-      <c r="AB7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" s="2" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>community facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -984,16 +984,12 @@
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
-        </is>
-      </c>
+      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr"/>
@@ -1023,17 +1019,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>community healthcare facility</t>
+          <t>community facility</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility [OMRSE:00000102]</t>
+          <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -1047,14 +1043,14 @@
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>polyclinic</t>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr"/>
@@ -1086,17 +1082,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>community outpatient clinic facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]</t>
+          <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1110,12 +1106,16 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
+        </is>
+      </c>
       <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr"/>
@@ -1145,17 +1145,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>community outpatient clinic facility</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>geographic location [GAZ:00000448]</t>
+          <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1169,16 +1169,12 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
@@ -1208,17 +1204,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>criminal justice facility</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1232,14 +1228,14 @@
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
@@ -1271,17 +1267,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>dentist facility</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility [OMRSE:00000102]</t>
+          <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1295,12 +1291,16 @@
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>prison</t>
+        </is>
+      </c>
       <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr"/>
@@ -1330,12 +1330,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1354,23 +1354,15 @@
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
-        </is>
-      </c>
+      <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="S14" s="2" t="inlineStr"/>
       <c r="T14" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -1397,17 +1389,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>drug or alcohol rehabilitation facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>rehabilitation facility [OMRSE:00000106]</t>
+          <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
@@ -1421,15 +1413,23 @@
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
+        </is>
+      </c>
       <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -1456,17 +1456,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>drug or alcohol rehabilitation facility</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>educational facility [BCIO:026022]</t>
+          <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1480,16 +1480,12 @@
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
@@ -1519,17 +1515,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>educational facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1543,12 +1539,16 @@
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
+        </is>
+      </c>
       <c r="Q17" s="2" t="inlineStr"/>
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
@@ -1576,86 +1576,78 @@
       <c r="AC17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OMRSE:00000114 </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>hospital facility [OMRSE:00000063]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>OMRSE_00000114</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026022</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>facility [OMRSE:00000062]</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="AA18" s="2" t="inlineStr"/>
+      <c r="AB18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t xml:space="preserve">OMRSE:00000114 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>architectural structure [OMRSE:00000061]</t>
+          <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1669,27 +1661,23 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Ontology of Medically Related Social Entities</t>
+          <t>OMRSE_00000114</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>External</t>
@@ -1714,145 +1702,149 @@
       <c r="AC19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>architectural structure [OMRSE:00000061]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>BCIO:026039</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>factory facility</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr">
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X20" s="2" t="inlineStr"/>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
-      <c r="AA20" s="2" t="inlineStr"/>
-      <c r="AB20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>outdoor environment [BCIO:026046]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X21" s="2" t="inlineStr"/>
+      <c r="Y21" s="2" t="inlineStr"/>
+      <c r="Z21" s="2" t="inlineStr"/>
+      <c r="AA21" s="2" t="inlineStr"/>
+      <c r="AB21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>spatial region [BFO:0000006]</t>
+          <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1866,27 +1858,23 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Gazeteer Ontology</t>
+          <t>Environment Ontology</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>lz</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
@@ -1913,17 +1901,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>outdoor environment [BCIO:026046]</t>
+          <t>spatial region [BFO:0000006]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1937,23 +1925,27 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Environment Ontology</t>
+          <t>Gazeteer Ontology</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
@@ -1980,17 +1972,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2004,17 +1996,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Ontology of Medically Related Social Entities</t>
+          <t>Environment Ontology</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2045,82 +2037,86 @@
       <c r="AC24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026006</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>area social and economic condition [BCIO:026004]</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>developed country</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X25" s="2" t="inlineStr"/>
-      <c r="Y25" s="2" t="inlineStr"/>
-      <c r="Z25" s="2" t="inlineStr"/>
-      <c r="AA25" s="2" t="inlineStr"/>
-      <c r="AB25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC25" s="2" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>facility [OMRSE:00000062]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>homeless setting</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>residential facility [OMRSE:00000191]</t>
+          <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2134,14 +2130,14 @@
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>developed country</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr"/>
@@ -2171,81 +2167,77 @@
       <c r="AC26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>healthcare facility [OMRSE:00000102]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026013</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>residential facility [OMRSE:00000191]</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr"/>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
+      <c r="AA27" s="2" t="inlineStr"/>
+      <c r="AB27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2264,17 +2256,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Ontology of Medically Related Social Entities</t>
+          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2305,78 +2297,86 @@
       <c r="AC28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026015</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>hospital facility [OMRSE:00000063]</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X29" s="2" t="inlineStr"/>
-      <c r="Y29" s="2" t="inlineStr"/>
-      <c r="Z29" s="2" t="inlineStr"/>
-      <c r="AA29" s="2" t="inlineStr"/>
-      <c r="AB29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC29" s="2" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>healthcare facility [OMRSE:00000102]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>hospital outpatient clinic facility</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>community facility [BCIO:026029]</t>
+          <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2390,16 +2390,12 @@
       <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
-        </is>
-      </c>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr"/>
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr"/>
@@ -2429,17 +2425,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>household residence</t>
+          <t>hospitality and catering facility</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>residential facility [OMRSE:00000191]</t>
+          <t>community facility [BCIO:026029]</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2453,12 +2449,16 @@
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
       <c r="Q31" s="2" t="inlineStr"/>
       <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr"/>
@@ -2488,17 +2488,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>community facility [BCIO:026029]</t>
+          <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -2512,7 +2512,7 @@
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr"/>
@@ -2547,17 +2547,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>area social and economic condition [BCIO:026004]</t>
+          <t>community facility [BCIO:026029]</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -2571,16 +2571,12 @@
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
-        </is>
-      </c>
+      <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr"/>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr"/>
@@ -2610,17 +2606,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>middle school</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>school facility [OMRSE:00000064]</t>
+          <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2634,12 +2630,16 @@
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
+        </is>
+      </c>
       <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr"/>
@@ -2669,17 +2669,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>middle school</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2693,16 +2693,12 @@
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
-        </is>
-      </c>
+      <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr"/>
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr"/>
@@ -2732,17 +2728,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>transportation [BCIO:026041]</t>
+          <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2756,14 +2752,14 @@
       <c r="L36" s="2" t="inlineStr"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>mobile van</t>
+          <t>army; navy; air force</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr"/>
@@ -2795,17 +2791,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>multiple occupancy residence</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>residential facility [OMRSE:00000191]</t>
+          <t>transportation [BCIO:026041]</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2819,14 +2815,14 @@
       <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>mobile van</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr"/>
@@ -2858,17 +2854,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>office facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]</t>
+          <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -2882,12 +2878,16 @@
       <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>bedsit</t>
+        </is>
+      </c>
       <c r="Q38" s="2" t="inlineStr"/>
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr"/>
@@ -2917,17 +2917,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>site [BFO:0000029]</t>
+          <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -2941,7 +2941,7 @@
       <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr"/>
@@ -2974,145 +2974,145 @@
       <c r="AC39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026046</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>site [BFO:0000029]</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X40" s="2" t="inlineStr"/>
+      <c r="Y40" s="2" t="inlineStr"/>
+      <c r="Z40" s="2" t="inlineStr"/>
+      <c r="AA40" s="2" t="inlineStr"/>
+      <c r="AB40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>ENVO:00000562</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>ENVO:00000562</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026048</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>outdoor environment [BCIO:026046]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X41" s="2" t="inlineStr"/>
-      <c r="Y41" s="2" t="inlineStr"/>
-      <c r="Z41" s="2" t="inlineStr"/>
-      <c r="AA41" s="2" t="inlineStr"/>
-      <c r="AB41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC41" s="2" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>path or pavement [BCIO:026048]</t>
+          <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
       <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr"/>
@@ -3161,12 +3161,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>path or pavement for pedestrians</t>
+          <t>path or pavement for cyclists</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -3185,7 +3185,7 @@
       <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr"/>
@@ -3218,145 +3218,145 @@
       <c r="AC43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026049</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>path or pavement [BCIO:026048]</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X44" s="2" t="inlineStr"/>
+      <c r="Y44" s="2" t="inlineStr"/>
+      <c r="Z44" s="2" t="inlineStr"/>
+      <c r="AA44" s="2" t="inlineStr"/>
+      <c r="AB44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>PDRO:0000074</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>pharmacy facility</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>PDRO:0000074</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026007</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>attribute of location [BCIO:026003]</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X45" s="2" t="inlineStr"/>
-      <c r="Y45" s="2" t="inlineStr"/>
-      <c r="Z45" s="2" t="inlineStr"/>
-      <c r="AA45" s="2" t="inlineStr"/>
-      <c r="AB45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC45" s="2" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>primary school</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>school facility [OMRSE:00000064]</t>
+          <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3370,7 +3370,7 @@
       <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr"/>
@@ -3405,17 +3405,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>primary school</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>transportation [BCIO:026041]</t>
+          <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3429,16 +3429,12 @@
       <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
-        </is>
-      </c>
+      <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr"/>
@@ -3468,17 +3464,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility [OMRSE:00000102]</t>
+          <t>transportation [BCIO:026041]</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3492,20 +3488,16 @@
       <c r="L48" s="2" t="inlineStr"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="N48" s="2" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
-        </is>
-      </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>NCI Thesaurus OBO Edition</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr"/>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
+        </is>
+      </c>
       <c r="Q48" s="2" t="inlineStr"/>
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr"/>
@@ -3535,17 +3527,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>transportation [BCIO:026041]</t>
+          <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -3559,12 +3551,12 @@
       <c r="L49" s="2" t="inlineStr"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>NCIT:C141287</t>
+          <t>NCIT:C53536</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
@@ -3572,11 +3564,7 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
+      <c r="P49" s="2" t="inlineStr"/>
       <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr"/>
@@ -3604,480 +3592,484 @@
       <c r="AC49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026042</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>transportation [BCIO:026041]</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus OBO Edition</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X50" s="2" t="inlineStr"/>
+      <c r="Y50" s="2" t="inlineStr"/>
+      <c r="Z50" s="2" t="inlineStr"/>
+      <c r="AA50" s="2" t="inlineStr"/>
+      <c r="AB50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>rehabilitation facility</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>BCIO:026033</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>religious facility</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr">
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
-      <c r="T51" s="2" t="inlineStr">
+      <c r="Q52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr"/>
+      <c r="T52" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
-      <c r="W51" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X51" s="2" t="inlineStr"/>
-      <c r="Y51" s="2" t="inlineStr"/>
-      <c r="Z51" s="2" t="inlineStr"/>
-      <c r="AA51" s="2" t="inlineStr"/>
-      <c r="AB51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X52" s="2" t="inlineStr"/>
+      <c r="Y52" s="2" t="inlineStr"/>
+      <c r="Z52" s="2" t="inlineStr"/>
+      <c r="AA52" s="2" t="inlineStr"/>
+      <c r="AB52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>ENVO:00000469</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>ENVO:00000469</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>research lab</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>BCIO:026012</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>residential care or assisted living</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr">
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
-      <c r="T53" s="2" t="inlineStr">
+      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
+      <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
-      <c r="W53" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X53" s="2" t="inlineStr"/>
-      <c r="Y53" s="2" t="inlineStr"/>
-      <c r="Z53" s="2" t="inlineStr"/>
-      <c r="AA53" s="2" t="inlineStr"/>
-      <c r="AB53" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X54" s="2" t="inlineStr"/>
+      <c r="Y54" s="2" t="inlineStr"/>
+      <c r="Z54" s="2" t="inlineStr"/>
+      <c r="AA54" s="2" t="inlineStr"/>
+      <c r="AB54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>residential facility</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>BCIO:026036</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>retail facility</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
-      <c r="T55" s="2" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr"/>
+      <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X55" s="2" t="inlineStr"/>
-      <c r="Y55" s="2" t="inlineStr"/>
-      <c r="Z55" s="2" t="inlineStr"/>
-      <c r="AA55" s="2" t="inlineStr"/>
-      <c r="AB55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC55" s="2" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>outdoor environment [BCIO:026046]</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X56" s="2" t="inlineStr"/>
+      <c r="Y56" s="2" t="inlineStr"/>
+      <c r="Z56" s="2" t="inlineStr"/>
+      <c r="AA56" s="2" t="inlineStr"/>
+      <c r="AB56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>road</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>population and resource density [BCIO:026007]</t>
+          <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -4091,12 +4083,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4134,17 +4126,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">OMRSE:00000064 </t>
+          <t>ENVO:01000772</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>educational facility [BCIO:026022]</t>
+          <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -4158,17 +4150,17 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">OMRSE:00000064 </t>
+          <t>ENVO:01000772</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Ontology of Medically Related Social Entities</t>
+          <t>Environment Ontology</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -4199,211 +4191,215 @@
       <c r="AC58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OMRSE:00000064 </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>educational facility [BCIO:026022]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OMRSE:00000064 </t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>BCIO:026026</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>secondary school</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
+      <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X59" s="2" t="inlineStr"/>
-      <c r="Y59" s="2" t="inlineStr"/>
-      <c r="Z59" s="2" t="inlineStr"/>
-      <c r="AA59" s="2" t="inlineStr"/>
-      <c r="AB59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X60" s="2" t="inlineStr"/>
+      <c r="Y60" s="2" t="inlineStr"/>
+      <c r="Z60" s="2" t="inlineStr"/>
+      <c r="AA60" s="2" t="inlineStr"/>
+      <c r="AB60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>BFO:0000029</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>BFO_0000029</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>Basic Formal Ontology</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026031</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>community facility [BCIO:026029]</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="inlineStr"/>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
-      <c r="W61" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X61" s="2" t="inlineStr"/>
-      <c r="Y61" s="2" t="inlineStr"/>
-      <c r="Z61" s="2" t="inlineStr"/>
-      <c r="AA61" s="2" t="inlineStr"/>
-      <c r="AB61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC61" s="2" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -4422,14 +4418,14 @@
       <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr"/>
@@ -4461,17 +4457,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>student residence</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>multiple occupancy residence [BCIO:026010]</t>
+          <t>community facility [BCIO:026029]</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -4485,14 +4481,14 @@
       <c r="L63" s="2" t="inlineStr"/>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr"/>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>student hall</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr"/>
@@ -4524,17 +4520,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>student residence</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>population and resource density [BCIO:026007]</t>
+          <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -4548,12 +4544,16 @@
       <c r="L64" s="2" t="inlineStr"/>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr"/>
       <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>student hall</t>
+        </is>
+      </c>
       <c r="Q64" s="2" t="inlineStr"/>
       <c r="R64" s="2" t="inlineStr"/>
       <c r="S64" s="2" t="inlineStr"/>
@@ -4583,17 +4583,17 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>residential facility [OMRSE:00000191]</t>
+          <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -4607,16 +4607,12 @@
       <c r="L65" s="2" t="inlineStr"/>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
+          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr"/>
       <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
-        </is>
-      </c>
+      <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr"/>
       <c r="R65" s="2" t="inlineStr"/>
       <c r="S65" s="2" t="inlineStr"/>
@@ -4646,17 +4642,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>temporary residence</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>site [BFO:0000029]</t>
+          <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -4670,20 +4666,16 @@
       <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="N66" s="2" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
-        </is>
-      </c>
-      <c r="O66" s="2" t="inlineStr">
-        <is>
-          <t>NCI Thesaurus OBO Edition</t>
-        </is>
-      </c>
-      <c r="P66" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
+        </is>
+      </c>
       <c r="Q66" s="2" t="inlineStr"/>
       <c r="R66" s="2" t="inlineStr"/>
       <c r="S66" s="2" t="inlineStr"/>
@@ -4713,17 +4705,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>educational facility [BCIO:026022]</t>
+          <t>site [BFO:0000029]</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -4737,11 +4729,19 @@
       <c r="L67" s="2" t="inlineStr"/>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="O67" s="2" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus OBO Edition</t>
+        </is>
+      </c>
       <c r="P67" s="2" t="inlineStr"/>
       <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr"/>
@@ -4770,145 +4770,145 @@
       <c r="AC67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026028</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>educational facility [BCIO:026022]</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr"/>
+      <c r="Q68" s="2" t="inlineStr"/>
+      <c r="R68" s="2" t="inlineStr"/>
+      <c r="S68" s="2" t="inlineStr"/>
+      <c r="T68" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr"/>
+      <c r="W68" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X68" s="2" t="inlineStr"/>
+      <c r="Y68" s="2" t="inlineStr"/>
+      <c r="Z68" s="2" t="inlineStr"/>
+      <c r="AA68" s="2" t="inlineStr"/>
+      <c r="AB68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>ENVO:01000856</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>urban area</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>ENVO:01000856</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:026027</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>educational facility [BCIO:026022]</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr">
-        <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
-      <c r="T69" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
-      <c r="W69" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="X69" s="2" t="inlineStr"/>
-      <c r="Y69" s="2" t="inlineStr"/>
-      <c r="Z69" s="2" t="inlineStr"/>
-      <c r="AA69" s="2" t="inlineStr"/>
-      <c r="AB69" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" s="2" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>outdoor environment [BCIO:026046]</t>
+          <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -4922,7 +4922,7 @@
       <c r="L70" s="2" t="inlineStr"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr"/>
@@ -4957,17 +4957,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>within-country location</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>geographic location [GAZ:00000448]</t>
+          <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -4981,23 +4981,15 @@
       <c r="L71" s="2" t="inlineStr"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
+          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr"/>
       <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
-        </is>
-      </c>
+      <c r="P71" s="2" t="inlineStr"/>
       <c r="Q71" s="2" t="inlineStr"/>
       <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>LZ</t>
-        </is>
-      </c>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5021,6 +5013,73 @@
       </c>
       <c r="AC71" s="2" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:026002</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>geographic location [GAZ:00000448]</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr"/>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr"/>
+      <c r="W72" s="2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="X72" s="2" t="inlineStr"/>
+      <c r="Y72" s="2" t="inlineStr"/>
+      <c r="Z72" s="2" t="inlineStr"/>
+      <c r="AA72" s="2" t="inlineStr"/>
+      <c r="AB72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC72" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -694,7 +694,9 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4607,7 +4609,7 @@
       <c r="L65" s="2" t="inlineStr"/>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr"/>
@@ -4615,7 +4617,11 @@
       <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr"/>
       <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -4831,7 +4837,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENVO:01000856</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4855,23 +4861,23 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Incorporated populated place</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>ENVO:01000856</t>
-        </is>
-      </c>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Environment Ontology</t>
+          <t>claude.ai</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -694,8 +694,10 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>0</v>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr"/>
     </row>
@@ -4128,7 +4130,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4152,14 +4154,10 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>ENVO:01000772</t>
-        </is>
-      </c>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
           <t>Environment Ontology</t>
@@ -4168,7 +4166,11 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -4158,11 +4158,7 @@
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2083,7 +2083,11 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2016,7 +2016,11 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1878,7 +1878,11 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/bcio_setting.xlsx
+++ b/Setting/bcio_setting.xlsx
@@ -500,72 +500,72 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Definition Source</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Definition Source</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Curator note</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -611,19 +611,19 @@
       </c>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="n"/>
       <c r="U2" s="2" t="n"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W2" s="2" t="n"/>
@@ -659,19 +659,19 @@
           <t>material entity [BFO:0000040]</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -712,26 +712,26 @@
       </c>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
-        </is>
-      </c>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T4" s="2" t="n"/>
       <c r="U4" s="2" t="n"/>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+        </is>
+      </c>
       <c r="X4" s="2" t="n"/>
       <c r="Y4" s="2" t="n"/>
       <c r="Z4" s="2" t="n"/>
@@ -775,26 +775,26 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="n"/>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
       <c r="X5" s="2" t="n"/>
       <c r="Y5" s="2" t="n"/>
       <c r="Z5" s="2" t="n"/>
@@ -842,30 +842,30 @@
       </c>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="n"/>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W6" s="2" t="n"/>
       <c r="X6" s="2" t="n"/>
       <c r="Y6" s="2" t="n"/>
       <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>JH; BG</t>
+        </is>
+      </c>
       <c r="AB6" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -894,24 +894,24 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>ENVO:00000091</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T8" s="2" t="n"/>
       <c r="U8" s="2" t="n"/>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W8" s="2" t="n"/>
@@ -1011,26 +1011,26 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
-        </is>
-      </c>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T9" s="2" t="n"/>
       <c r="U9" s="2" t="n"/>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W9" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
+        </is>
+      </c>
       <c r="X9" s="2" t="n"/>
       <c r="Y9" s="2" t="n"/>
       <c r="Z9" s="2" t="n"/>
@@ -1074,26 +1074,26 @@
       </c>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="n"/>
       <c r="U10" s="2" t="n"/>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
+        </is>
+      </c>
       <c r="X10" s="2" t="n"/>
       <c r="Y10" s="2" t="n"/>
       <c r="Z10" s="2" t="n"/>
@@ -1137,19 +1137,19 @@
       </c>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T11" s="2" t="n"/>
       <c r="U11" s="2" t="n"/>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W11" s="2" t="n"/>
@@ -1196,26 +1196,26 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="n"/>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
+        </is>
+      </c>
       <c r="X12" s="2" t="n"/>
       <c r="Y12" s="2" t="n"/>
       <c r="Z12" s="2" t="n"/>
@@ -1259,26 +1259,26 @@
       </c>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>prison</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T13" s="2" t="n"/>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>prison</t>
+        </is>
+      </c>
       <c r="X13" s="2" t="n"/>
       <c r="Y13" s="2" t="n"/>
       <c r="Z13" s="2" t="n"/>
@@ -1322,19 +1322,19 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T14" s="2" t="n"/>
       <c r="U14" s="2" t="n"/>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W14" s="2" t="n"/>
@@ -1381,34 +1381,34 @@
       </c>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
-        </is>
-      </c>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
       <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T15" s="2" t="n"/>
       <c r="U15" s="2" t="n"/>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W15" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
+        </is>
+      </c>
       <c r="X15" s="2" t="n"/>
       <c r="Y15" s="2" t="n"/>
       <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
+      <c r="AA15" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="AB15" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1448,19 +1448,19 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T16" s="2" t="n"/>
       <c r="U16" s="2" t="n"/>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W16" s="2" t="n"/>
@@ -1507,26 +1507,26 @@
       </c>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
-        </is>
-      </c>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T17" s="2" t="n"/>
       <c r="U17" s="2" t="n"/>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
+        </is>
+      </c>
       <c r="X17" s="2" t="n"/>
       <c r="Y17" s="2" t="n"/>
       <c r="Z17" s="2" t="n"/>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T18" s="2" t="n"/>
       <c r="U18" s="2" t="n"/>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W18" s="2" t="n"/>
@@ -1618,24 +1618,24 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>OMRSE_00000114</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>OMRSE:00000114</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>OMRSE_00000114</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -1665,29 +1665,29 @@
           <t>architectural structure [OMRSE:00000061]</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>OMRSE:00000062</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="n"/>
       <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T21" s="2" t="n"/>
       <c r="U21" s="2" t="n"/>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W21" s="2" t="n"/>
@@ -1776,29 +1776,29 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>ENVO:00000111</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S22" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -1828,29 +1828,29 @@
           <t>spatial region [BFO:0000006]</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Gazeteer Ontology</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>GAZ:00000448</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Gazeteer Ontology</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>lz</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -1880,29 +1880,29 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>ENVO:00000106</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -1932,29 +1932,29 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>OMRSE:00000102</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -1995,26 +1995,26 @@
       </c>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>developed country</t>
-        </is>
-      </c>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T26" s="2" t="n"/>
       <c r="U26" s="2" t="n"/>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W26" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>developed country</t>
+        </is>
+      </c>
       <c r="X26" s="2" t="n"/>
       <c r="Y26" s="2" t="n"/>
       <c r="Z26" s="2" t="n"/>
@@ -2058,26 +2058,26 @@
       </c>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
-        </is>
-      </c>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T27" s="2" t="n"/>
       <c r="U27" s="2" t="n"/>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W27" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+        </is>
+      </c>
       <c r="X27" s="2" t="n"/>
       <c r="Y27" s="2" t="n"/>
       <c r="Z27" s="2" t="n"/>
@@ -2110,24 +2110,24 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>OMRSE:00000104</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -2157,24 +2157,24 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>OMRSE:00000063</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -2215,19 +2215,19 @@
       </c>
       <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="n"/>
       <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="n"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T30" s="2" t="n"/>
       <c r="U30" s="2" t="n"/>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W30" s="2" t="n"/>
@@ -2274,26 +2274,26 @@
       </c>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
-        </is>
-      </c>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="n"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T31" s="2" t="n"/>
       <c r="U31" s="2" t="n"/>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W31" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
       <c r="X31" s="2" t="n"/>
       <c r="Y31" s="2" t="n"/>
       <c r="Z31" s="2" t="n"/>
@@ -2337,19 +2337,19 @@
       </c>
       <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P32" s="2" t="n"/>
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T32" s="2" t="n"/>
       <c r="U32" s="2" t="n"/>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W32" s="2" t="n"/>
@@ -2396,19 +2396,19 @@
       </c>
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="n"/>
       <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T33" s="2" t="n"/>
       <c r="U33" s="2" t="n"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W33" s="2" t="n"/>
@@ -2455,19 +2455,19 @@
       </c>
       <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="n"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T34" s="2" t="n"/>
       <c r="U34" s="2" t="n"/>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W34" s="2" t="n"/>
@@ -2514,19 +2514,19 @@
       </c>
       <c r="N35" s="2" t="n"/>
       <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T35" s="2" t="n"/>
       <c r="U35" s="2" t="n"/>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W35" s="2" t="n"/>
@@ -2573,26 +2573,26 @@
       </c>
       <c r="N36" s="2" t="n"/>
       <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
-        </is>
-      </c>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
       <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T36" s="2" t="n"/>
       <c r="U36" s="2" t="n"/>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
+        </is>
+      </c>
       <c r="X36" s="2" t="n"/>
       <c r="Y36" s="2" t="n"/>
       <c r="Z36" s="2" t="n"/>
@@ -2636,26 +2636,26 @@
       </c>
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>mobile van</t>
-        </is>
-      </c>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T37" s="2" t="n"/>
       <c r="U37" s="2" t="n"/>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W37" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>mobile van</t>
+        </is>
+      </c>
       <c r="X37" s="2" t="n"/>
       <c r="Y37" s="2" t="n"/>
       <c r="Z37" s="2" t="n"/>
@@ -2699,26 +2699,26 @@
       </c>
       <c r="N38" s="2" t="n"/>
       <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>bedsit</t>
-        </is>
-      </c>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="n"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T38" s="2" t="n"/>
       <c r="U38" s="2" t="n"/>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W38" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>bedsit</t>
+        </is>
+      </c>
       <c r="X38" s="2" t="n"/>
       <c r="Y38" s="2" t="n"/>
       <c r="Z38" s="2" t="n"/>
@@ -2762,19 +2762,19 @@
       </c>
       <c r="N39" s="2" t="n"/>
       <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P39" s="2" t="n"/>
       <c r="Q39" s="2" t="n"/>
       <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T39" s="2" t="n"/>
       <c r="U39" s="2" t="n"/>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W39" s="2" t="n"/>
@@ -2821,19 +2821,19 @@
       </c>
       <c r="N40" s="2" t="n"/>
       <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P40" s="2" t="n"/>
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="n"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T40" s="2" t="n"/>
       <c r="U40" s="2" t="n"/>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W40" s="2" t="n"/>
@@ -2869,24 +2869,24 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>ENVO:00000562</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -2927,19 +2927,19 @@
       </c>
       <c r="N42" s="2" t="n"/>
       <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P42" s="2" t="n"/>
       <c r="Q42" s="2" t="n"/>
       <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T42" s="2" t="n"/>
       <c r="U42" s="2" t="n"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W42" s="2" t="n"/>
@@ -2986,19 +2986,19 @@
       </c>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T43" s="2" t="n"/>
       <c r="U43" s="2" t="n"/>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W43" s="2" t="n"/>
@@ -3045,19 +3045,19 @@
       </c>
       <c r="N44" s="2" t="n"/>
       <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T44" s="2" t="n"/>
       <c r="U44" s="2" t="n"/>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W44" s="2" t="n"/>
@@ -3093,24 +3093,24 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>The Prescription of Drugs Ontology</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>PDRO:0000074</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>The Prescription of Drugs Ontology</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -3151,19 +3151,19 @@
       </c>
       <c r="N46" s="2" t="n"/>
       <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P46" s="2" t="n"/>
       <c r="Q46" s="2" t="n"/>
       <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T46" s="2" t="n"/>
       <c r="U46" s="2" t="n"/>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W46" s="2" t="n"/>
@@ -3210,19 +3210,19 @@
       </c>
       <c r="N47" s="2" t="n"/>
       <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P47" s="2" t="n"/>
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="n"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T47" s="2" t="n"/>
       <c r="U47" s="2" t="n"/>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W47" s="2" t="n"/>
@@ -3269,26 +3269,26 @@
       </c>
       <c r="N48" s="2" t="n"/>
       <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
-        </is>
-      </c>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="n"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T48" s="2" t="n"/>
       <c r="U48" s="2" t="n"/>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W48" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
+        </is>
+      </c>
       <c r="X48" s="2" t="n"/>
       <c r="Y48" s="2" t="n"/>
       <c r="Z48" s="2" t="n"/>
@@ -3330,29 +3330,29 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr">
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus OBO Edition</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>NCIT:C53536</t>
         </is>
       </c>
-      <c r="O49" s="2" t="inlineStr">
-        <is>
-          <t>NCI Thesaurus OBO Edition</t>
-        </is>
-      </c>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T49" s="2" t="n"/>
       <c r="U49" s="2" t="n"/>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W49" s="2" t="n"/>
@@ -3397,36 +3397,36 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr">
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus OBO Edition</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>NCIT:C141287</t>
         </is>
       </c>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>NCI Thesaurus OBO Edition</t>
-        </is>
-      </c>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="n"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T50" s="2" t="n"/>
       <c r="U50" s="2" t="n"/>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W50" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
       <c r="X50" s="2" t="n"/>
       <c r="Y50" s="2" t="n"/>
       <c r="Z50" s="2" t="n"/>
@@ -3459,24 +3459,24 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -3517,26 +3517,26 @@
       </c>
       <c r="N52" s="2" t="n"/>
       <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
-        </is>
-      </c>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="n"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T52" s="2" t="n"/>
       <c r="U52" s="2" t="n"/>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W52" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
+        </is>
+      </c>
       <c r="X52" s="2" t="n"/>
       <c r="Y52" s="2" t="n"/>
       <c r="Z52" s="2" t="n"/>
@@ -3569,29 +3569,29 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>ENVO:00000469</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
         <is>
           <t>research lab</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -3632,26 +3632,26 @@
       </c>
       <c r="N54" s="2" t="n"/>
       <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>retirement home</t>
-        </is>
-      </c>
+      <c r="P54" s="2" t="n"/>
+      <c r="Q54" s="2" t="n"/>
       <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T54" s="2" t="n"/>
       <c r="U54" s="2" t="n"/>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W54" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>retirement home</t>
+        </is>
+      </c>
       <c r="X54" s="2" t="n"/>
       <c r="Y54" s="2" t="n"/>
       <c r="Z54" s="2" t="n"/>
@@ -3684,24 +3684,24 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -3742,26 +3742,26 @@
       </c>
       <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
-        </is>
-      </c>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
       <c r="R56" s="2" t="n"/>
-      <c r="S56" s="2" t="n"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T56" s="2" t="n"/>
       <c r="U56" s="2" t="n"/>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W56" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
+        </is>
+      </c>
       <c r="X56" s="2" t="n"/>
       <c r="Y56" s="2" t="n"/>
       <c r="Z56" s="2" t="n"/>
@@ -3794,24 +3794,24 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Environment Ontology</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>ENVO:00000064</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Environment Ontology</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>rural area density</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3841,19 +3841,19 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S58" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -3883,24 +3883,24 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Ontology of Medically Related Social Entities</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t xml:space="preserve">OMRSE:00000064 </t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Ontology of Medically Related Social Entities</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Setting</t>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -3941,26 +3941,26 @@
       </c>
       <c r="N60" s="2" t="n"/>
       <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>high school</t>
-        </is>
-      </c>
+      <c r="P60" s="2" t="n"/>
+      <c r="Q60" s="2" t="n"/>
       <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="n"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T60" s="2" t="n"/>
       <c r="U60" s="2" t="n"/>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W60" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W60" s="2" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
       <c r="X60" s="2" t="n"/>
       <c r="Y60" s="2" t="n"/>
       <c r="Z60" s="2" t="n"/>
@@ -3993,29 +3993,29 @@
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Basic Formal Ontology</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>BFO_0000029</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Basic Formal Ontology</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S61" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -4056,26 +4056,26 @@
       </c>
       <c r="N62" s="2" t="n"/>
       <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
-        </is>
-      </c>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
       <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T62" s="2" t="n"/>
       <c r="U62" s="2" t="n"/>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W62" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W62" s="2" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
+        </is>
+      </c>
       <c r="X62" s="2" t="n"/>
       <c r="Y62" s="2" t="n"/>
       <c r="Z62" s="2" t="n"/>
@@ -4119,26 +4119,26 @@
       </c>
       <c r="N63" s="2" t="n"/>
       <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
-        </is>
-      </c>
+      <c r="P63" s="2" t="n"/>
+      <c r="Q63" s="2" t="n"/>
       <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T63" s="2" t="n"/>
       <c r="U63" s="2" t="n"/>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W63" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W63" s="2" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
+        </is>
+      </c>
       <c r="X63" s="2" t="n"/>
       <c r="Y63" s="2" t="n"/>
       <c r="Z63" s="2" t="n"/>
@@ -4182,26 +4182,26 @@
       </c>
       <c r="N64" s="2" t="n"/>
       <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>student hall</t>
-        </is>
-      </c>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
       <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="n"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T64" s="2" t="n"/>
       <c r="U64" s="2" t="n"/>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W64" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W64" s="2" t="inlineStr">
+        <is>
+          <t>student hall</t>
+        </is>
+      </c>
       <c r="X64" s="2" t="n"/>
       <c r="Y64" s="2" t="n"/>
       <c r="Z64" s="2" t="n"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>suburban area density</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -4245,30 +4245,30 @@
       </c>
       <c r="N65" s="2" t="n"/>
       <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="n"/>
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T65" s="2" t="n"/>
       <c r="U65" s="2" t="n"/>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W65" s="2" t="n"/>
       <c r="X65" s="2" t="n"/>
       <c r="Y65" s="2" t="n"/>
       <c r="Z65" s="2" t="n"/>
-      <c r="AA65" s="2" t="n"/>
+      <c r="AA65" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AB65" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4308,26 +4308,26 @@
       </c>
       <c r="N66" s="2" t="n"/>
       <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
-        </is>
-      </c>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
       <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="n"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T66" s="2" t="n"/>
       <c r="U66" s="2" t="n"/>
       <c r="V66" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W66" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W66" s="2" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
+        </is>
+      </c>
       <c r="X66" s="2" t="n"/>
       <c r="Y66" s="2" t="n"/>
       <c r="Z66" s="2" t="n"/>
@@ -4369,29 +4369,29 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="N67" s="2" t="inlineStr">
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus OBO Edition</t>
+        </is>
+      </c>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
+      <c r="R67" s="2" t="inlineStr">
         <is>
           <t>NCIT_C141286</t>
         </is>
       </c>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>NCI Thesaurus OBO Edition</t>
-        </is>
-      </c>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="n"/>
-      <c r="R67" s="2" t="n"/>
-      <c r="S67" s="2" t="n"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T67" s="2" t="n"/>
       <c r="U67" s="2" t="n"/>
       <c r="V67" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W67" s="2" t="n"/>
@@ -4438,19 +4438,19 @@
       </c>
       <c r="N68" s="2" t="n"/>
       <c r="O68" s="2" t="n"/>
-      <c r="P68" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P68" s="2" t="n"/>
       <c r="Q68" s="2" t="n"/>
       <c r="R68" s="2" t="n"/>
-      <c r="S68" s="2" t="n"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T68" s="2" t="n"/>
       <c r="U68" s="2" t="n"/>
       <c r="V68" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W68" s="2" t="n"/>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>urban area density</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4491,19 +4491,19 @@
           <t>claude.ai</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="S69" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -4544,19 +4544,19 @@
       </c>
       <c r="N70" s="2" t="n"/>
       <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P70" s="2" t="n"/>
       <c r="Q70" s="2" t="n"/>
       <c r="R70" s="2" t="n"/>
-      <c r="S70" s="2" t="n"/>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T70" s="2" t="n"/>
       <c r="U70" s="2" t="n"/>
       <c r="V70" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W70" s="2" t="n"/>
@@ -4603,19 +4603,19 @@
       </c>
       <c r="N71" s="2" t="n"/>
       <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="P71" s="2" t="n"/>
       <c r="Q71" s="2" t="n"/>
       <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="n"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="T71" s="2" t="n"/>
       <c r="U71" s="2" t="n"/>
       <c r="V71" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="W71" s="2" t="n"/>
@@ -4662,34 +4662,34 @@
       </c>
       <c r="N72" s="2" t="n"/>
       <c r="O72" s="2" t="n"/>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
-        </is>
-      </c>
+      <c r="P72" s="2" t="n"/>
+      <c r="Q72" s="2" t="n"/>
       <c r="R72" s="2" t="n"/>
       <c r="S72" s="2" t="inlineStr">
         <is>
-          <t>LZ</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T72" s="2" t="n"/>
       <c r="U72" s="2" t="n"/>
       <c r="V72" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W72" s="2" t="n"/>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="W72" s="2" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
+        </is>
+      </c>
       <c r="X72" s="2" t="n"/>
       <c r="Y72" s="2" t="n"/>
       <c r="Z72" s="2" t="n"/>
-      <c r="AA72" s="2" t="n"/>
+      <c r="AA72" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="AB72" s="2" t="inlineStr">
         <is>
           <t>0</t>
